--- a/data/Alberto_2013_springevents_original_papers.xlsx
+++ b/data/Alberto_2013_springevents_original_papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3C7DEE-88EB-4062-83A3-2BA1C0810AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B637F6-4728-42CB-90C3-D2ECF45B4FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{E14EF0CA-1903-45C7-9A88-12D5600E8893}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="113">
   <si>
     <t>Paper</t>
   </si>
@@ -225,13 +225,154 @@
     <t>South early</t>
   </si>
   <si>
-    <t>Papers Alberto et al. 2013 referenced when analyzing spring events</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alina was not able to access these ones: </t>
   </si>
   <si>
     <t>* the green color does not mean anything; merely for the ease of readability</t>
+  </si>
+  <si>
+    <t>EA Vitasse et al 2010</t>
+  </si>
+  <si>
+    <t>have plots of leaf unfolding dates VS temperature, but dont have the exact doys (need to estimate)</t>
+  </si>
+  <si>
+    <t>also this is doy vs temperature…. No sure how applicable it is</t>
+  </si>
+  <si>
+    <t>hmmmm tbh I'm a bit confused about this one.. Looks like Vitasse el al. was doing 5 common gardens at different elevations rather than one common garden with different provenances…</t>
+  </si>
+  <si>
+    <t>EA Ducousso 1995</t>
+  </si>
+  <si>
+    <t>have budburst score over latitude… idk how that translates into doy</t>
+  </si>
+  <si>
+    <t>probably a great resource</t>
+  </si>
+  <si>
+    <t>Latitudinal/Altitudinal</t>
+  </si>
+  <si>
+    <t>EA Derory et al 2010</t>
+  </si>
+  <si>
+    <t>EA Chuine Cour 1999</t>
+  </si>
+  <si>
+    <t>Platanus acerifolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castanea sativa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitis vinifera </t>
+  </si>
+  <si>
+    <t>Quercus pubescens</t>
+  </si>
+  <si>
+    <t>probo should ignore… this one isnt about provenance tests</t>
+  </si>
+  <si>
+    <t>EA Hall et al 2007</t>
+  </si>
+  <si>
+    <t>have plots of bb dates VS latitude, but dont have the exact doys (need to estimate)</t>
+  </si>
+  <si>
+    <t>this paper documents phenological plasticity of bb in european aspens</t>
+  </si>
+  <si>
+    <t>Populus tremula</t>
+  </si>
+  <si>
+    <t>EA Rosique-Esplugas et al 2021</t>
+  </si>
+  <si>
+    <t>no cline</t>
+  </si>
+  <si>
+    <t>EA Savolainen et al 2007</t>
+  </si>
+  <si>
+    <t>NA Liu El-Kassaby 2019</t>
+  </si>
+  <si>
+    <t>Populus trichocarpa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hmmm they have their data archived on Dryad… but the doi is not functioning.. </t>
+  </si>
+  <si>
+    <t>https://bmcecolevol.biomedcentral.com/articles/10.1186/s12862-019-1553-6#ref-CR87</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Adansonia digitata</t>
+  </si>
+  <si>
+    <t>this paper found bb to be in sync with precipitation patterns</t>
+  </si>
+  <si>
+    <t>AA Bamba et al 2019</t>
+  </si>
+  <si>
+    <t>EA Firmat et al 2017</t>
+  </si>
+  <si>
+    <t>this paper has an interesting model</t>
+  </si>
+  <si>
+    <t>have plots of leaf unfolding dates VS elevation, but dont have the exact doys (need to estimate)</t>
+  </si>
+  <si>
+    <t>EA Kremer et al 2014</t>
+  </si>
+  <si>
+    <t>Maps of predicted day of bud-burst for Betula pubescens derived by applying degree day requirement to future climate projections</t>
+  </si>
+  <si>
+    <t>EA Bennie et al 2010</t>
+  </si>
+  <si>
+    <t>Betula pubescens</t>
+  </si>
+  <si>
+    <t>have plots of bb dates VS elevation (adpated from Alberto et al. 2011), but dont have the exact doys (need to estimate)</t>
+  </si>
+  <si>
+    <t>Populus angustifolia</t>
+  </si>
+  <si>
+    <t>NA Evans et al 2016</t>
+  </si>
+  <si>
+    <t>probably a great resource (looks at climate)</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/10.1002/ece3.2222</t>
+  </si>
+  <si>
+    <t>supporting info</t>
+  </si>
+  <si>
+    <t>https://datadryad.org/stash/dataset/doi:10.5061/dryad.ch720</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Populus fremontti</t>
+  </si>
+  <si>
+    <t>NA Cooper et al 2018</t>
+  </si>
+  <si>
+    <t>probably a great resource (they plotted out plasticity too)</t>
   </si>
 </sst>
 </file>
@@ -281,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -289,11 +430,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -301,9 +462,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,8 +545,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7455EC2E-8A76-4980-B548-57DE73F50C69}" name="Table1" displayName="Table1" ref="B4:M20" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B4:M20" xr:uid="{7455EC2E-8A76-4980-B548-57DE73F50C69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7455EC2E-8A76-4980-B548-57DE73F50C69}" name="Table1" displayName="Table1" ref="B1:M17" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="B1:M17" xr:uid="{7455EC2E-8A76-4980-B548-57DE73F50C69}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{99BB5A67-2F87-4E7C-93EC-9160BD673EA0}" name="Paper"/>
     <tableColumn id="2" xr3:uid="{3CF9A467-F2B0-4046-9CBB-575EBD2A3ED5}" name="Species"/>
@@ -694,152 +862,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6A9F5B-E3EF-4A09-A5AF-8601DC4A8767}">
-  <dimension ref="B1:M29"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L55" sqref="L55:L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="48.15625" customWidth="1"/>
     <col min="2" max="2" width="34.3125" customWidth="1"/>
     <col min="3" max="4" width="20.20703125" customWidth="1"/>
-    <col min="5" max="7" width="14.47265625" customWidth="1"/>
+    <col min="5" max="5" width="14.47265625" customWidth="1"/>
+    <col min="6" max="6" width="24.734375" customWidth="1"/>
+    <col min="7" max="7" width="14.47265625" customWidth="1"/>
     <col min="8" max="8" width="11.26171875" customWidth="1"/>
     <col min="9" max="11" width="9.7890625" customWidth="1"/>
-    <col min="12" max="12" width="73" customWidth="1"/>
+    <col min="12" max="12" width="85.5234375" customWidth="1"/>
     <col min="13" max="13" width="56.9453125" customWidth="1"/>
     <col min="19" max="19" width="16.578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="7">
-        <v>44368</v>
-      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>22</v>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
+      <c r="G5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="6"/>
+      <c r="G6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -848,71 +1112,68 @@
         <v>58</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="H8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>58</v>
@@ -932,429 +1193,848 @@
       <c r="K9" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="L9" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E44" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F44" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="M46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="H48" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="T49" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="N50" t="s">
+        <v>106</v>
+      </c>
+      <c r="T50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H51" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="5" t="s">
+      <c r="F52" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="D25" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="D28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="D29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/Alberto_2013_springevents_original_papers.xlsx
+++ b/data/Alberto_2013_springevents_original_papers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B637F6-4728-42CB-90C3-D2ECF45B4FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A15CB6-E797-4071-ACA2-6F80572819B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{E14EF0CA-1903-45C7-9A88-12D5600E8893}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="120">
   <si>
     <t>Paper</t>
   </si>
@@ -303,12 +303,6 @@
     <t>Populus trichocarpa</t>
   </si>
   <si>
-    <t xml:space="preserve">hmmm they have their data archived on Dryad… but the doi is not functioning.. </t>
-  </si>
-  <si>
-    <t>https://bmcecolevol.biomedcentral.com/articles/10.1186/s12862-019-1553-6#ref-CR87</t>
-  </si>
-  <si>
     <t>Africa</t>
   </si>
   <si>
@@ -373,6 +367,33 @@
   </si>
   <si>
     <t>probably a great resource (they plotted out plasticity too)</t>
+  </si>
+  <si>
+    <t>precipitation</t>
+  </si>
+  <si>
+    <t>inclusion</t>
+  </si>
+  <si>
+    <t>Confusing, no easy data to gather</t>
+  </si>
+  <si>
+    <t>check fig.3 (email the author to request the location data for the populations.)</t>
+  </si>
+  <si>
+    <t>samve as above</t>
+  </si>
+  <si>
+    <t>probably a great resource; found supplemental info</t>
+  </si>
+  <si>
+    <t>hmmm data is taken from Ducousso 1995….</t>
+  </si>
+  <si>
+    <t>https://dataverse.scholarsportal.info/dataset.xhtml?persistentId=doi:10.5683/SP2/OAXHHZ</t>
+  </si>
+  <si>
+    <t>canopy.duration = bb to leaf drop</t>
   </si>
 </sst>
 </file>
@@ -396,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +439,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -472,6 +505,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,8 +590,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7455EC2E-8A76-4980-B548-57DE73F50C69}" name="Table1" displayName="Table1" ref="B1:M17" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="B1:M17" xr:uid="{7455EC2E-8A76-4980-B548-57DE73F50C69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7455EC2E-8A76-4980-B548-57DE73F50C69}" name="Table1" displayName="Table1" ref="C1:N17" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="C1:N17" xr:uid="{7455EC2E-8A76-4980-B548-57DE73F50C69}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{99BB5A67-2F87-4E7C-93EC-9160BD673EA0}" name="Paper"/>
     <tableColumn id="2" xr3:uid="{3CF9A467-F2B0-4046-9CBB-575EBD2A3ED5}" name="Species"/>
@@ -862,88 +907,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6A9F5B-E3EF-4A09-A5AF-8601DC4A8767}">
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L55" sqref="L55:L56"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="48.15625" customWidth="1"/>
-    <col min="2" max="2" width="34.3125" customWidth="1"/>
-    <col min="3" max="4" width="20.20703125" customWidth="1"/>
-    <col min="5" max="5" width="14.47265625" customWidth="1"/>
-    <col min="6" max="6" width="24.734375" customWidth="1"/>
-    <col min="7" max="7" width="14.47265625" customWidth="1"/>
-    <col min="8" max="8" width="11.26171875" customWidth="1"/>
-    <col min="9" max="11" width="9.7890625" customWidth="1"/>
-    <col min="12" max="12" width="85.5234375" customWidth="1"/>
-    <col min="13" max="13" width="56.9453125" customWidth="1"/>
-    <col min="19" max="19" width="16.578125" customWidth="1"/>
+    <col min="2" max="2" width="22.734375" customWidth="1"/>
+    <col min="3" max="3" width="34.3125" customWidth="1"/>
+    <col min="4" max="5" width="20.20703125" customWidth="1"/>
+    <col min="6" max="6" width="14.47265625" customWidth="1"/>
+    <col min="7" max="7" width="24.734375" customWidth="1"/>
+    <col min="8" max="8" width="14.47265625" customWidth="1"/>
+    <col min="9" max="9" width="11.26171875" customWidth="1"/>
+    <col min="10" max="12" width="9.7890625" customWidth="1"/>
+    <col min="13" max="13" width="85.5234375" customWidth="1"/>
+    <col min="14" max="14" width="56.9453125" customWidth="1"/>
+    <col min="20" max="20" width="16.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I2" s="3" t="s">
         <v>10</v>
       </c>
@@ -953,35 +996,35 @@
       <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
@@ -991,30 +1034,30 @@
       <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1024,35 +1067,35 @@
       <c r="K4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" t="s">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="I5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1062,29 +1105,29 @@
       <c r="K5" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="s">
+      <c r="L5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="I6" s="4" t="s">
         <v>19</v>
       </c>
@@ -1094,29 +1137,29 @@
       <c r="K6" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
+      <c r="L6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="I7" s="4" t="s">
         <v>19</v>
       </c>
@@ -1126,29 +1169,29 @@
       <c r="K7" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="6" t="s">
+      <c r="L7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="I8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1158,32 +1201,32 @@
       <c r="K8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" t="s">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="I9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1196,64 +1239,64 @@
       <c r="L9" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="6" t="s">
+      <c r="M9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>19</v>
+      <c r="I10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>10</v>
+      <c r="K10" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" t="s">
+      <c r="M10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="I11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1263,32 +1306,32 @@
       <c r="K11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="I12" s="4" t="s">
         <v>19</v>
       </c>
@@ -1298,32 +1341,32 @@
       <c r="K12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" t="s">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="I13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1333,32 +1376,32 @@
       <c r="K13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="I14" s="4" t="s">
         <v>19</v>
       </c>
@@ -1371,31 +1414,31 @@
       <c r="L14" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" t="s">
+      <c r="M14" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>19</v>
+      <c r="I15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>19</v>
@@ -1403,32 +1446,32 @@
       <c r="K15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="6" t="s">
+      <c r="L15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I16" s="3" t="s">
         <v>10</v>
       </c>
@@ -1438,32 +1481,32 @@
       <c r="K16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" t="s">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>10</v>
       </c>
@@ -1473,71 +1516,76 @@
       <c r="K17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" t="s">
+      <c r="L17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" s="1" t="s">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" t="s">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" t="s">
         <v>28</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" t="s">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" t="s">
         <v>34</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D25" t="s">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" t="s">
         <v>36</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="D26" t="s">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" t="s">
         <v>39</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" t="s">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C32" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="I32" s="11" t="s">
         <v>10</v>
       </c>
@@ -1547,32 +1595,32 @@
       <c r="K32" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L32" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="M32" s="12" t="s">
+      <c r="N32" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="D33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="I33" s="11" t="s">
         <v>10</v>
       </c>
@@ -1582,34 +1630,37 @@
       <c r="K33" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" t="s">
+      <c r="L33" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="D36" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="I36" s="11" t="s">
         <v>10</v>
       </c>
@@ -1619,29 +1670,35 @@
       <c r="K36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L36" s="12" t="s">
+      <c r="L36" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
       <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="D37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="I37" s="11" t="s">
         <v>10</v>
       </c>
@@ -1651,61 +1708,65 @@
       <c r="K37" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" t="s">
         <v>74</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="C39" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="D39" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="C41" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="D41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:14" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" t="s">
         <v>80</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="G43" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="H43" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="H43" s="14" t="s">
-        <v>19</v>
-      </c>
       <c r="I43" s="14" t="s">
         <v>19</v>
       </c>
@@ -1715,64 +1776,73 @@
       <c r="K43" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L43" s="7" t="s">
+      <c r="L43" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
         <v>84</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="F44" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="G44" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H44" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L44" s="7" t="s">
+      <c r="I44" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" s="19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="G45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H45" s="14" t="s">
-        <v>19</v>
-      </c>
       <c r="I45" s="14" t="s">
         <v>19</v>
       </c>
@@ -1782,26 +1852,29 @@
       <c r="K45" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L45" s="12" t="s">
+      <c r="L45" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
         <v>87</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="F46" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H46" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="I46" s="11" t="s">
         <v>10</v>
       </c>
@@ -1811,31 +1884,34 @@
       <c r="K46" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L46" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="M46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="L46" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>10</v>
+      <c r="F47" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>10</v>
@@ -1843,187 +1919,188 @@
       <c r="J47" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K47" s="14" t="s">
-        <v>19</v>
+      <c r="K47" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="L47" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="M47" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>71</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="U49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="7" t="s">
+      <c r="D50" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E50" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="F50" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="G50" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O50" t="s">
+        <v>104</v>
+      </c>
+      <c r="U50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="H49" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="N49" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="T49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H50" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K50" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="N50" t="s">
-        <v>106</v>
-      </c>
-      <c r="T50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" t="s">
-        <v>104</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H51" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K51" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L51" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="I52" s="11" t="s">
         <v>10</v>
       </c>
@@ -2033,7 +2110,10 @@
       <c r="K52" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L52" s="7" t="s">
+      <c r="L52" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M52" s="7" t="s">
         <v>21</v>
       </c>
     </row>

--- a/data/Alberto_2013_springevents_original_papers.xlsx
+++ b/data/Alberto_2013_springevents_original_papers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A15CB6-E797-4071-ACA2-6F80572819B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896B606D-2E35-4C2E-A111-175E8D3D9834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{E14EF0CA-1903-45C7-9A88-12D5600E8893}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="126">
   <si>
     <t>Paper</t>
   </si>
@@ -394,6 +394,24 @@
   </si>
   <si>
     <t>canopy.duration = bb to leaf drop</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>Sogaard et al. 2008</t>
+  </si>
+  <si>
+    <t>North early</t>
+  </si>
+  <si>
+    <t>figure 5: 50% bb dates in relation to latitude</t>
+  </si>
+  <si>
+    <t>8 weeks of dormancy treatment at different temperatures….</t>
+  </si>
+  <si>
+    <t>Y (table 4)</t>
   </si>
 </sst>
 </file>
@@ -417,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -454,6 +472,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -487,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -517,6 +547,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,8 +623,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7455EC2E-8A76-4980-B548-57DE73F50C69}" name="Table1" displayName="Table1" ref="C1:N17" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="C1:N17" xr:uid="{7455EC2E-8A76-4980-B548-57DE73F50C69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7455EC2E-8A76-4980-B548-57DE73F50C69}" name="Table1" displayName="Table1" ref="C1:N19" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="C1:N19" xr:uid="{7455EC2E-8A76-4980-B548-57DE73F50C69}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{99BB5A67-2F87-4E7C-93EC-9160BD673EA0}" name="Paper"/>
     <tableColumn id="2" xr3:uid="{3CF9A467-F2B0-4046-9CBB-575EBD2A3ED5}" name="Species"/>
@@ -907,11 +940,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6A9F5B-E3EF-4A09-A5AF-8601DC4A8767}">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -930,7 +963,7 @@
     <col min="20" max="20" width="16.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +1001,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1006,7 +1039,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1039,7 +1072,7 @@
       </c>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
         <v>14</v>
       </c>
@@ -1077,7 +1110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -1109,7 +1142,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -1141,7 +1174,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -1173,7 +1206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="6" t="s">
         <v>30</v>
       </c>
@@ -1208,7 +1241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" t="s">
         <v>31</v>
       </c>
@@ -1243,7 +1276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="6" t="s">
         <v>32</v>
       </c>
@@ -1278,7 +1311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" t="s">
         <v>37</v>
       </c>
@@ -1313,379 +1346,398 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="6" t="s">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G13" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="6" t="s">
+      <c r="I13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" t="s">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="I14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="6" t="s">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G15" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" t="s">
+      <c r="I15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G16" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="6" t="s">
+      <c r="I16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G17" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="6" t="s">
+      <c r="I17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G18" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>19</v>
+      <c r="I18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" t="s">
+        <v>123</v>
+      </c>
+      <c r="N19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E22" s="1" t="s">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="1" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="E23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E24" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.55000000000000004">
       <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27" t="s">
         <v>39</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" t="s">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D33" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E33" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F33" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G33" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L32" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M32" s="9" t="s">
+      <c r="H33" s="24"/>
+      <c r="I33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M33" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="N32" s="12" t="s">
+      <c r="N33" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C33" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D34" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E34" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F34" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G34" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C34" t="s">
+      <c r="H34" s="24"/>
+      <c r="I34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" s="24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M36" s="12" t="s">
-        <v>70</v>
-      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>38</v>
@@ -1716,85 +1768,82 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="13" t="s">
+      <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" t="s">
+      <c r="B39" s="13"/>
+      <c r="C39" t="s">
         <v>74</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="D39" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="D41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="13" t="s">
+    <row r="44" spans="1:14" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B44" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" t="s">
         <v>80</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>83</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="I43" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J43" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M43" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" t="s">
-        <v>17</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>27</v>
@@ -1805,16 +1854,19 @@
       <c r="G44" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I44" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L44" s="19" t="s">
+      <c r="H44" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="14" t="s">
         <v>19</v>
       </c>
       <c r="M44" s="19" t="s">
@@ -1823,16 +1875,16 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>19</v>
+        <v>116</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>38</v>
+        <v>84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>27</v>
@@ -1843,75 +1895,75 @@
       <c r="G45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I45" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M45" s="12" t="s">
-        <v>70</v>
+      <c r="I45" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="18" t="s">
-        <v>10</v>
+      <c r="A46" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L46" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M46" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="N46" s="15" t="s">
-        <v>118</v>
+      <c r="F46" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
-        <v>91</v>
+      <c r="B47" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>10</v>
@@ -1922,57 +1974,60 @@
       <c r="K47" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L47" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M47" s="14" t="s">
-        <v>19</v>
+      <c r="L47" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="N47" s="15" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I48" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>19</v>
+      <c r="F48" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="L48" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M48" s="7" t="s">
-        <v>95</v>
+      <c r="M48" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>52</v>
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>38</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>27</v>
@@ -1980,8 +2035,8 @@
       <c r="F49" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="8" t="s">
-        <v>72</v>
+      <c r="G49" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="I49" s="14" t="s">
         <v>19</v>
@@ -1996,25 +2051,18 @@
         <v>19</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="O49" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="U49" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B50" s="13"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
       <c r="C50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>27</v>
@@ -2023,7 +2071,7 @@
         <v>24</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I50" s="14" t="s">
         <v>19</v>
@@ -2040,22 +2088,23 @@
       <c r="M50" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="O50" t="s">
-        <v>104</v>
+      <c r="O50" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="U50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" t="s">
-        <v>103</v>
-      </c>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="13"/>
       <c r="C51" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>27</v>
@@ -2078,42 +2127,83 @@
       <c r="L51" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="M51" s="14" t="s">
-        <v>19</v>
+      <c r="M51" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O51" t="s">
+        <v>104</v>
+      </c>
+      <c r="U51" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G53" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I52" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M52" s="7" t="s">
+      <c r="I53" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M53" s="7" t="s">
         <v>21</v>
       </c>
     </row>

--- a/data/Alberto_2013_springevents_original_papers.xlsx
+++ b/data/Alberto_2013_springevents_original_papers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alina\Documents\git\localadaptclim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896B606D-2E35-4C2E-A111-175E8D3D9834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6FB0B9-A022-4350-B764-B2494B7D05B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{E14EF0CA-1903-45C7-9A88-12D5600E8893}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="132">
   <si>
     <t>Paper</t>
   </si>
@@ -412,6 +412,24 @@
   </si>
   <si>
     <t>Y (table 4)</t>
+  </si>
+  <si>
+    <t>theres 3 articles that might be worth reading</t>
+  </si>
+  <si>
+    <t>check downloads</t>
+  </si>
+  <si>
+    <t>EA Petkova et al 2017</t>
+  </si>
+  <si>
+    <t>need to scrape from Fig 2 and Tab 1</t>
+  </si>
+  <si>
+    <t>EA Schueler et al 2012</t>
+  </si>
+  <si>
+    <t>need to seek translation help first</t>
   </si>
 </sst>
 </file>
@@ -435,7 +453,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +502,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -517,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -528,7 +558,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -550,6 +579,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,11 +975,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6A9F5B-E3EF-4A09-A5AF-8601DC4A8767}">
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D57" sqref="D57:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1120,13 +1155,13 @@
       <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>61</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -1152,13 +1187,13 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>61</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1286,13 +1321,13 @@
       <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>61</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -1371,7 +1406,7 @@
       <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="22" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1406,7 +1441,7 @@
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>57</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -1441,7 +1476,7 @@
       <c r="F15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="22" t="s">
         <v>57</v>
       </c>
       <c r="H15" s="5" t="s">
@@ -1476,7 +1511,7 @@
       <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>57</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -1511,7 +1546,7 @@
       <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="22" t="s">
         <v>57</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -1546,7 +1581,7 @@
       <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>57</v>
       </c>
       <c r="H18" t="s">
@@ -1581,7 +1616,7 @@
       <c r="F19" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>57</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -1654,80 +1689,80 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="25" t="s">
+      <c r="G33" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="H33" s="24"/>
-      <c r="I33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="11" t="s">
+      <c r="H33" s="23"/>
+      <c r="I33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="N33" s="12" t="s">
+      <c r="N33" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="G34" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L34" s="11" t="s">
+      <c r="H34" s="23"/>
+      <c r="I34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
@@ -1751,19 +1786,19 @@
       <c r="G37" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I37" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M37" s="12" t="s">
+      <c r="I37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1789,27 +1824,27 @@
       <c r="G38" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I38" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M38" s="12" t="s">
+      <c r="I38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="13"/>
+      <c r="B39" s="12"/>
       <c r="C39" t="s">
         <v>74</v>
       </c>
@@ -1833,43 +1868,43 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I44" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M44" s="19" t="s">
+      <c r="I44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" s="18" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1877,7 +1912,7 @@
       <c r="A45" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C45" t="s">
@@ -1895,19 +1930,19 @@
       <c r="G45" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I45" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J45" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="M45" s="19" t="s">
+      <c r="I45" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M45" s="18" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1915,42 +1950,42 @@
       <c r="A46" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B46" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I46" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L46" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M46" s="12" t="s">
+      <c r="I46" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" s="11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C47" t="s">
@@ -1962,25 +1997,25 @@
       <c r="E47" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I47" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L47" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M47" s="22" t="s">
+      <c r="I47" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="N47" s="15" t="s">
+      <c r="N47" s="14" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1988,34 +2023,34 @@
       <c r="A48" t="s">
         <v>91</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="I48" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L48" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M48" s="14" t="s">
+      <c r="I48" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M48" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2023,31 +2058,31 @@
       <c r="A49" t="s">
         <v>94</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I49" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K49" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L49" s="14" t="s">
+      <c r="I49" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="13" t="s">
         <v>19</v>
       </c>
       <c r="M49" s="7" t="s">
@@ -2058,37 +2093,37 @@
       <c r="A50" t="s">
         <v>71</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I50" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K50" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L50" s="14" t="s">
+      <c r="I50" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="13" t="s">
         <v>19</v>
       </c>
       <c r="M50" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="O50" s="12" t="s">
+      <c r="O50" s="11" t="s">
         <v>105</v>
       </c>
       <c r="U50" t="s">
@@ -2096,35 +2131,35 @@
       </c>
     </row>
     <row r="51" spans="1:21" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" t="s">
+      <c r="B51" s="12"/>
+      <c r="C51" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I51" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K51" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L51" s="14" t="s">
+      <c r="I51" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="13" t="s">
         <v>19</v>
       </c>
       <c r="M51" s="7" t="s">
@@ -2141,34 +2176,34 @@
       <c r="A52" t="s">
         <v>103</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I52" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K52" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="L52" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="M52" s="14" t="s">
+      <c r="I52" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" s="13" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2176,35 +2211,109 @@
       <c r="A53" t="s">
         <v>110</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="11" t="s">
         <v>108</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I53" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L53" s="11" t="s">
+      <c r="I53" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L53" s="10" t="s">
         <v>10</v>
       </c>
       <c r="M53" s="7" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M56" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="C57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M57" s="30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E69" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
